--- a/ML_Models_for_PersonalColor/data2.xlsx
+++ b/ML_Models_for_PersonalColor/data2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BeautyGAN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Makeup-Service\ML_Models_for_PersonalColor\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -441,9 +441,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P721"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A704" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="P721" sqref="P721"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -40039,7 +40039,6 @@
         <v>0</v>
       </c>
       <c r="P720">
-        <f t="shared" si="68"/>
         <v>1</v>
       </c>
     </row>
